--- a/ConverterToBin/ConverterToBin/bin/Release/Xlsx/Level.xlsx
+++ b/ConverterToBin/ConverterToBin/bin/Release/Xlsx/Level.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,37 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
     <t>通关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>皇宫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>妖王</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>帮派</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>兽群</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,7 +216,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拯救小女孩</t>
+    <t>赤色风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小女孩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>多灵触</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚特兰蒂斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营救阿兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘辛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万妖谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涅普顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仪器争夺战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -323,12 +371,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -633,12 +682,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -667,7 +717,7 @@
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="str">
         <f>(临时数据!$B$1)&amp;临时数据!A1</f>
-        <v>3029001A</v>
+        <v>302900101</v>
       </c>
       <c r="B3">
         <f>临时数据!$B$1</f>
@@ -680,1313 +730,1145 @@
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="str">
         <f>(临时数据!$B$1)&amp;临时数据!A2</f>
-        <v>3029001B</v>
+        <v>302900102</v>
       </c>
       <c r="B4">
         <f>临时数据!$B$1</f>
         <v>3029001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="str">
         <f>(临时数据!$B$1)&amp;临时数据!A3</f>
-        <v>3029001C</v>
+        <v>302900103</v>
       </c>
       <c r="B5">
         <f>临时数据!$B$1</f>
         <v>3029001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="str">
         <f>(临时数据!$B$1)&amp;临时数据!A4</f>
-        <v>3029001D</v>
+        <v>302900104</v>
       </c>
       <c r="B6">
         <f>临时数据!$B$1</f>
         <v>3029001</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="str">
         <f>(临时数据!$B$1)&amp;临时数据!A5</f>
-        <v>3029001E</v>
+        <v>302900105</v>
       </c>
       <c r="B7">
         <f>临时数据!$B$1</f>
         <v>3029001</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="str">
         <f>(临时数据!$B$1)&amp;临时数据!A6</f>
-        <v>3029001F</v>
+        <v>302900106</v>
       </c>
       <c r="B8">
         <f>临时数据!$B$1</f>
         <v>3029001</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="str">
         <f>(临时数据!$B$1)&amp;临时数据!A7</f>
-        <v>3029001G</v>
+        <v>302900107</v>
       </c>
       <c r="B9">
         <f>临时数据!$B$1</f>
         <v>3029001</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="str">
         <f>(临时数据!$B$1)&amp;临时数据!A8</f>
-        <v>3029001H</v>
+        <v>302900108</v>
       </c>
       <c r="B10">
         <f>临时数据!$B$1</f>
         <v>3029001</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="str">
         <f>(临时数据!$B$1)&amp;临时数据!A9</f>
-        <v>3029001I</v>
+        <v>302900109</v>
       </c>
       <c r="B11">
         <f>临时数据!$B$1</f>
         <v>3029001</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="str">
         <f>(临时数据!$B$1)&amp;临时数据!A10</f>
-        <v>3029001J</v>
+        <v>302900110</v>
       </c>
       <c r="B12">
         <f>临时数据!$B$1</f>
         <v>3029001</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="str">
         <f>(临时数据!$B$2)&amp;临时数据!A1</f>
-        <v>3029002A</v>
+        <v>302900201</v>
       </c>
       <c r="B13">
         <f>临时数据!$B$2</f>
         <v>3029002</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="str">
         <f>(临时数据!$B$2)&amp;临时数据!A2</f>
-        <v>3029002B</v>
+        <v>302900202</v>
       </c>
       <c r="B14">
         <f>临时数据!$B$2</f>
         <v>3029002</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="str">
         <f>(临时数据!$B$2)&amp;临时数据!A3</f>
-        <v>3029002C</v>
+        <v>302900203</v>
       </c>
       <c r="B15">
         <f>临时数据!$B$2</f>
         <v>3029002</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="str">
         <f>(临时数据!$B$2)&amp;临时数据!A4</f>
-        <v>3029002D</v>
+        <v>302900204</v>
       </c>
       <c r="B16">
         <f>临时数据!$B$2</f>
         <v>3029002</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="str">
         <f>(临时数据!$B$2)&amp;临时数据!A5</f>
-        <v>3029002E</v>
+        <v>302900205</v>
       </c>
       <c r="B17">
         <f>临时数据!$B$2</f>
         <v>3029002</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="str">
         <f>(临时数据!$B$2)&amp;临时数据!A6</f>
-        <v>3029002F</v>
+        <v>302900206</v>
       </c>
       <c r="B18">
         <f>临时数据!$B$2</f>
         <v>3029002</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="str">
         <f>(临时数据!$B$2)&amp;临时数据!A7</f>
-        <v>3029002G</v>
+        <v>302900207</v>
       </c>
       <c r="B19">
         <f>临时数据!$B$2</f>
         <v>3029002</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="str">
         <f>(临时数据!$B$2)&amp;临时数据!A8</f>
-        <v>3029002H</v>
+        <v>302900208</v>
       </c>
       <c r="B20">
         <f>临时数据!$B$2</f>
         <v>3029002</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="str">
         <f>(临时数据!$B$2)&amp;临时数据!A9</f>
-        <v>3029002I</v>
+        <v>302900209</v>
       </c>
       <c r="B21">
         <f>临时数据!$B$2</f>
         <v>3029002</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="str">
         <f>(临时数据!$B$2)&amp;临时数据!A10</f>
-        <v>3029002J</v>
+        <v>302900210</v>
       </c>
       <c r="B22">
         <f>临时数据!$B$2</f>
         <v>3029002</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="str">
         <f>(临时数据!$B$3)&amp;临时数据!A1</f>
-        <v>3029003A</v>
+        <v>302900301</v>
       </c>
       <c r="B23">
         <f>临时数据!$B$3</f>
         <v>3029003</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="str">
         <f>(临时数据!$B$3)&amp;临时数据!A2</f>
-        <v>3029003B</v>
+        <v>302900302</v>
       </c>
       <c r="B24">
         <f>临时数据!$B$3</f>
         <v>3029003</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="str">
         <f>(临时数据!$B$3)&amp;临时数据!A3</f>
-        <v>3029003C</v>
+        <v>302900303</v>
       </c>
       <c r="B25">
         <f>临时数据!$B$3</f>
         <v>3029003</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="str">
         <f>(临时数据!$B$3)&amp;临时数据!A4</f>
-        <v>3029003D</v>
+        <v>302900304</v>
       </c>
       <c r="B26">
         <f>临时数据!$B$3</f>
         <v>3029003</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="str">
         <f>(临时数据!$B$3)&amp;临时数据!A5</f>
-        <v>3029003E</v>
+        <v>302900305</v>
       </c>
       <c r="B27">
         <f>临时数据!$B$3</f>
         <v>3029003</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="str">
         <f>(临时数据!$B$3)&amp;临时数据!A6</f>
-        <v>3029003F</v>
+        <v>302900306</v>
       </c>
       <c r="B28">
         <f>临时数据!$B$3</f>
         <v>3029003</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="str">
         <f>(临时数据!$B$3)&amp;临时数据!A7</f>
-        <v>3029003G</v>
+        <v>302900307</v>
       </c>
       <c r="B29">
         <f>临时数据!$B$3</f>
         <v>3029003</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="str">
         <f>(临时数据!$B$3)&amp;临时数据!A8</f>
-        <v>3029003H</v>
+        <v>302900308</v>
       </c>
       <c r="B30">
         <f>临时数据!$B$3</f>
         <v>3029003</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="str">
         <f>(临时数据!$B$3)&amp;临时数据!A9</f>
-        <v>3029003I</v>
+        <v>302900309</v>
       </c>
       <c r="B31">
         <f>临时数据!$B$3</f>
         <v>3029003</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="str">
         <f>(临时数据!$B$3)&amp;临时数据!A10</f>
-        <v>3029003J</v>
+        <v>302900310</v>
       </c>
       <c r="B32">
         <f>临时数据!$B$3</f>
         <v>3029003</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="3" t="str">
         <f>(临时数据!$B$4)&amp;临时数据!A1</f>
-        <v>3029004A</v>
+        <v>302900401</v>
       </c>
       <c r="B33">
         <f>临时数据!$B$4</f>
         <v>3029004</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="3" t="str">
         <f>(临时数据!$B$4)&amp;临时数据!A2</f>
-        <v>3029004B</v>
+        <v>302900402</v>
       </c>
       <c r="B34">
         <f>临时数据!$B$4</f>
         <v>3029004</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="C34" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="3" t="str">
         <f>(临时数据!$B$4)&amp;临时数据!A3</f>
-        <v>3029004C</v>
+        <v>302900403</v>
       </c>
       <c r="B35">
         <f>临时数据!$B$4</f>
         <v>3029004</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="C35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="3" t="str">
         <f>(临时数据!$B$4)&amp;临时数据!A4</f>
-        <v>3029004D</v>
+        <v>302900404</v>
       </c>
       <c r="B36">
         <f>临时数据!$B$4</f>
         <v>3029004</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="C36" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="3" t="str">
         <f>(临时数据!$B$4)&amp;临时数据!A5</f>
-        <v>3029004E</v>
+        <v>302900405</v>
       </c>
       <c r="B37">
         <f>临时数据!$B$4</f>
         <v>3029004</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="C37" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="3" t="str">
         <f>(临时数据!$B$4)&amp;临时数据!A6</f>
-        <v>3029004F</v>
+        <v>302900406</v>
       </c>
       <c r="B38">
         <f>临时数据!$B$4</f>
         <v>3029004</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="C38" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="3" t="str">
         <f>(临时数据!$B$4)&amp;临时数据!A7</f>
-        <v>3029004G</v>
+        <v>302900407</v>
       </c>
       <c r="B39">
         <f>临时数据!$B$4</f>
         <v>3029004</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="C39" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="3" t="str">
         <f>(临时数据!$B$4)&amp;临时数据!A8</f>
-        <v>3029004H</v>
+        <v>302900408</v>
       </c>
       <c r="B40">
         <f>临时数据!$B$4</f>
         <v>3029004</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="C40" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="3" t="str">
         <f>(临时数据!$B$4)&amp;临时数据!A9</f>
-        <v>3029004I</v>
+        <v>302900409</v>
       </c>
       <c r="B41">
         <f>临时数据!$B$4</f>
         <v>3029004</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="C41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="3" t="str">
         <f>(临时数据!$B$4)&amp;临时数据!A10</f>
-        <v>3029004J</v>
+        <v>302900410</v>
       </c>
       <c r="B42">
         <f>临时数据!$B$4</f>
         <v>3029004</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="C42" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="str">
         <f>(临时数据!$B$5)&amp;临时数据!A1</f>
-        <v>3029005A</v>
+        <v>302900501</v>
       </c>
       <c r="B43">
         <f>临时数据!$B$5</f>
         <v>3029005</v>
       </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="C43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="2" t="str">
         <f>(临时数据!$B$5)&amp;临时数据!A2</f>
-        <v>3029005B</v>
+        <v>302900502</v>
       </c>
       <c r="B44">
         <f>临时数据!$B$5</f>
         <v>3029005</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="2" t="str">
         <f>(临时数据!$B$5)&amp;临时数据!A3</f>
-        <v>3029005C</v>
+        <v>302900503</v>
       </c>
       <c r="B45">
         <f>临时数据!$B$5</f>
         <v>3029005</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="2" t="str">
         <f>(临时数据!$B$5)&amp;临时数据!A4</f>
-        <v>3029005D</v>
+        <v>302900504</v>
       </c>
       <c r="B46">
         <f>临时数据!$B$5</f>
         <v>3029005</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="2" t="str">
         <f>(临时数据!$B$5)&amp;临时数据!A5</f>
-        <v>3029005E</v>
+        <v>302900505</v>
       </c>
       <c r="B47">
         <f>临时数据!$B$5</f>
         <v>3029005</v>
       </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="2" t="str">
         <f>(临时数据!$B$5)&amp;临时数据!A6</f>
-        <v>3029005F</v>
+        <v>302900506</v>
       </c>
       <c r="B48">
         <f>临时数据!$B$5</f>
         <v>3029005</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="2" t="str">
         <f>(临时数据!$B$5)&amp;临时数据!A7</f>
-        <v>3029005G</v>
+        <v>302900507</v>
       </c>
       <c r="B49">
         <f>临时数据!$B$5</f>
         <v>3029005</v>
       </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="2" t="str">
         <f>(临时数据!$B$5)&amp;临时数据!A8</f>
-        <v>3029005H</v>
+        <v>302900508</v>
       </c>
       <c r="B50">
         <f>临时数据!$B$5</f>
         <v>3029005</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="2" t="str">
         <f>(临时数据!$B$5)&amp;临时数据!A9</f>
-        <v>3029005I</v>
+        <v>302900509</v>
       </c>
       <c r="B51">
         <f>临时数据!$B$5</f>
         <v>3029005</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="2" t="str">
         <f>(临时数据!$B$5)&amp;临时数据!A10</f>
-        <v>3029005J</v>
+        <v>302900510</v>
       </c>
       <c r="B52">
         <f>临时数据!$B$5</f>
         <v>3029005</v>
       </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="str">
         <f>(临时数据!$B$6)&amp;临时数据!A1</f>
-        <v>3029006A</v>
+        <v>302900601</v>
       </c>
       <c r="B53">
         <f>临时数据!$B$6</f>
         <v>3029006</v>
       </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="str">
         <f>(临时数据!$B$6)&amp;临时数据!A2</f>
-        <v>3029006B</v>
+        <v>302900602</v>
       </c>
       <c r="B54">
         <f>临时数据!$B$6</f>
         <v>3029006</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="3" t="str">
         <f>(临时数据!$B$6)&amp;临时数据!A3</f>
-        <v>3029006C</v>
+        <v>302900603</v>
       </c>
       <c r="B55">
         <f>临时数据!$B$6</f>
         <v>3029006</v>
       </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="3" t="str">
         <f>(临时数据!$B$6)&amp;临时数据!A4</f>
-        <v>3029006D</v>
+        <v>302900604</v>
       </c>
       <c r="B56">
         <f>临时数据!$B$6</f>
         <v>3029006</v>
       </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="3" t="str">
         <f>(临时数据!$B$6)&amp;临时数据!A5</f>
-        <v>3029006E</v>
+        <v>302900605</v>
       </c>
       <c r="B57">
         <f>临时数据!$B$6</f>
         <v>3029006</v>
       </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="3" t="str">
         <f>(临时数据!$B$6)&amp;临时数据!A6</f>
-        <v>3029006F</v>
+        <v>302900606</v>
       </c>
       <c r="B58">
         <f>临时数据!$B$6</f>
         <v>3029006</v>
       </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="3" t="str">
         <f>(临时数据!$B$6)&amp;临时数据!A7</f>
-        <v>3029006G</v>
+        <v>302900607</v>
       </c>
       <c r="B59">
         <f>临时数据!$B$6</f>
         <v>3029006</v>
       </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="3" t="str">
         <f>(临时数据!$B$6)&amp;临时数据!A8</f>
-        <v>3029006H</v>
+        <v>302900608</v>
       </c>
       <c r="B60">
         <f>临时数据!$B$6</f>
         <v>3029006</v>
       </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="str">
         <f>(临时数据!$B$6)&amp;临时数据!A9</f>
-        <v>3029006I</v>
+        <v>302900609</v>
       </c>
       <c r="B61">
         <f>临时数据!$B$6</f>
         <v>3029006</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="3" t="str">
         <f>(临时数据!$B$6)&amp;临时数据!A10</f>
-        <v>3029006J</v>
+        <v>302900610</v>
       </c>
       <c r="B62">
         <f>临时数据!$B$6</f>
         <v>3029006</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="2" t="str">
         <f>(临时数据!$B$7)&amp;临时数据!A1</f>
-        <v>3029007A</v>
+        <v>302900701</v>
       </c>
       <c r="B63">
         <f>临时数据!$B$7</f>
         <v>3029007</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="2" t="str">
         <f>(临时数据!$B$7)&amp;临时数据!A2</f>
-        <v>3029007B</v>
+        <v>302900702</v>
       </c>
       <c r="B64">
         <f>临时数据!$B$7</f>
         <v>3029007</v>
       </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="2" t="str">
         <f>(临时数据!$B$7)&amp;临时数据!A3</f>
-        <v>3029007C</v>
+        <v>302900703</v>
       </c>
       <c r="B65">
         <f>临时数据!$B$7</f>
         <v>3029007</v>
       </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="2" t="str">
         <f>(临时数据!$B$7)&amp;临时数据!A4</f>
-        <v>3029007D</v>
+        <v>302900704</v>
       </c>
       <c r="B66">
         <f>临时数据!$B$7</f>
         <v>3029007</v>
       </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="2" t="str">
         <f>(临时数据!$B$7)&amp;临时数据!A5</f>
-        <v>3029007E</v>
+        <v>302900705</v>
       </c>
       <c r="B67">
         <f>临时数据!$B$7</f>
         <v>3029007</v>
       </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="2" t="str">
         <f>(临时数据!$B$7)&amp;临时数据!A6</f>
-        <v>3029007F</v>
+        <v>302900706</v>
       </c>
       <c r="B68">
         <f>临时数据!$B$7</f>
         <v>3029007</v>
       </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" s="2" t="str">
         <f>(临时数据!$B$7)&amp;临时数据!A7</f>
-        <v>3029007G</v>
+        <v>302900707</v>
       </c>
       <c r="B69">
         <f>临时数据!$B$7</f>
         <v>3029007</v>
       </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" s="2" t="str">
         <f>(临时数据!$B$7)&amp;临时数据!A8</f>
-        <v>3029007H</v>
+        <v>302900708</v>
       </c>
       <c r="B70">
         <f>临时数据!$B$7</f>
         <v>3029007</v>
       </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" s="2" t="str">
         <f>(临时数据!$B$7)&amp;临时数据!A9</f>
-        <v>3029007I</v>
+        <v>302900709</v>
       </c>
       <c r="B71">
         <f>临时数据!$B$7</f>
         <v>3029007</v>
       </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" s="2" t="str">
         <f>(临时数据!$B$7)&amp;临时数据!A10</f>
-        <v>3029007J</v>
+        <v>302900710</v>
       </c>
       <c r="B72">
         <f>临时数据!$B$7</f>
         <v>3029007</v>
       </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" s="3" t="str">
         <f>(临时数据!$B$8)&amp;临时数据!A1</f>
-        <v>3029008A</v>
+        <v>302900801</v>
       </c>
       <c r="B73">
         <f>临时数据!$B$8</f>
         <v>3029008</v>
       </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" s="3" t="str">
         <f>(临时数据!$B$8)&amp;临时数据!A2</f>
-        <v>3029008B</v>
+        <v>302900802</v>
       </c>
       <c r="B74">
         <f>临时数据!$B$8</f>
         <v>3029008</v>
       </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" s="3" t="str">
         <f>(临时数据!$B$8)&amp;临时数据!A3</f>
-        <v>3029008C</v>
+        <v>302900803</v>
       </c>
       <c r="B75">
         <f>临时数据!$B$8</f>
         <v>3029008</v>
       </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" s="3" t="str">
         <f>(临时数据!$B$8)&amp;临时数据!A4</f>
-        <v>3029008D</v>
+        <v>302900804</v>
       </c>
       <c r="B76">
         <f>临时数据!$B$8</f>
         <v>3029008</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" s="3" t="str">
         <f>(临时数据!$B$8)&amp;临时数据!A5</f>
-        <v>3029008E</v>
+        <v>302900805</v>
       </c>
       <c r="B77">
         <f>临时数据!$B$8</f>
         <v>3029008</v>
       </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="3" t="str">
         <f>(临时数据!$B$8)&amp;临时数据!A6</f>
-        <v>3029008F</v>
+        <v>302900806</v>
       </c>
       <c r="B78">
         <f>临时数据!$B$8</f>
         <v>3029008</v>
       </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" s="3" t="str">
         <f>(临时数据!$B$8)&amp;临时数据!A7</f>
-        <v>3029008G</v>
+        <v>302900807</v>
       </c>
       <c r="B79">
         <f>临时数据!$B$8</f>
         <v>3029008</v>
       </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" s="3" t="str">
         <f>(临时数据!$B$8)&amp;临时数据!A8</f>
-        <v>3029008H</v>
+        <v>302900808</v>
       </c>
       <c r="B80">
         <f>临时数据!$B$8</f>
         <v>3029008</v>
       </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" s="3" t="str">
         <f>(临时数据!$B$8)&amp;临时数据!A9</f>
-        <v>3029008I</v>
+        <v>302900809</v>
       </c>
       <c r="B81">
         <f>临时数据!$B$8</f>
         <v>3029008</v>
       </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" s="3" t="str">
         <f>(临时数据!$B$8)&amp;临时数据!A10</f>
-        <v>3029008J</v>
+        <v>302900810</v>
       </c>
       <c r="B82">
         <f>临时数据!$B$8</f>
         <v>3029008</v>
       </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" s="2" t="str">
         <f>(临时数据!$B$9)&amp;临时数据!A1</f>
-        <v>3029009A</v>
+        <v>302900901</v>
       </c>
       <c r="B83">
         <f>临时数据!$B$9</f>
         <v>3029009</v>
       </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" s="2" t="str">
         <f>(临时数据!$B$9)&amp;临时数据!A2</f>
-        <v>3029009B</v>
+        <v>302900902</v>
       </c>
       <c r="B84">
         <f>临时数据!$B$9</f>
         <v>3029009</v>
       </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" s="2" t="str">
         <f>(临时数据!$B$9)&amp;临时数据!A3</f>
-        <v>3029009C</v>
+        <v>302900903</v>
       </c>
       <c r="B85">
         <f>临时数据!$B$9</f>
         <v>3029009</v>
       </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" s="2" t="str">
         <f>(临时数据!$B$9)&amp;临时数据!A4</f>
-        <v>3029009D</v>
+        <v>302900904</v>
       </c>
       <c r="B86">
         <f>临时数据!$B$9</f>
         <v>3029009</v>
       </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" s="2" t="str">
         <f>(临时数据!$B$9)&amp;临时数据!A5</f>
-        <v>3029009E</v>
+        <v>302900905</v>
       </c>
       <c r="B87">
         <f>临时数据!$B$9</f>
         <v>3029009</v>
       </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" s="2" t="str">
         <f>(临时数据!$B$9)&amp;临时数据!A6</f>
-        <v>3029009F</v>
+        <v>302900906</v>
       </c>
       <c r="B88">
         <f>临时数据!$B$9</f>
         <v>3029009</v>
       </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" s="2" t="str">
         <f>(临时数据!$B$9)&amp;临时数据!A7</f>
-        <v>3029009G</v>
+        <v>302900907</v>
       </c>
       <c r="B89">
         <f>临时数据!$B$9</f>
         <v>3029009</v>
       </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" s="2" t="str">
         <f>(临时数据!$B$9)&amp;临时数据!A8</f>
-        <v>3029009H</v>
+        <v>302900908</v>
       </c>
       <c r="B90">
         <f>临时数据!$B$9</f>
         <v>3029009</v>
       </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" s="2" t="str">
         <f>(临时数据!$B$9)&amp;临时数据!A9</f>
-        <v>3029009I</v>
+        <v>302900909</v>
       </c>
       <c r="B91">
         <f>临时数据!$B$9</f>
         <v>3029009</v>
       </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" s="2" t="str">
         <f>(临时数据!$B$9)&amp;临时数据!A10</f>
-        <v>3029009J</v>
+        <v>302900910</v>
       </c>
       <c r="B92">
         <f>临时数据!$B$9</f>
         <v>3029009</v>
       </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" s="3" t="str">
         <f>(临时数据!$B$10)&amp;临时数据!A1</f>
-        <v>3029010A</v>
+        <v>302901001</v>
       </c>
       <c r="B93">
         <f>临时数据!$B$10</f>
         <v>3029010</v>
       </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" s="3" t="str">
         <f>(临时数据!$B$10)&amp;临时数据!A2</f>
-        <v>3029010B</v>
+        <v>302901002</v>
       </c>
       <c r="B94">
         <f>临时数据!$B$10</f>
         <v>3029010</v>
       </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" s="3" t="str">
         <f>(临时数据!$B$10)&amp;临时数据!A3</f>
-        <v>3029010C</v>
+        <v>302901003</v>
       </c>
       <c r="B95">
         <f>临时数据!$B$10</f>
         <v>3029010</v>
       </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" s="3" t="str">
         <f>(临时数据!$B$10)&amp;临时数据!A4</f>
-        <v>3029010D</v>
+        <v>302901004</v>
       </c>
       <c r="B96">
         <f>临时数据!$B$10</f>
         <v>3029010</v>
       </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" s="3" t="str">
         <f>(临时数据!$B$10)&amp;临时数据!A5</f>
-        <v>3029010E</v>
+        <v>302901005</v>
       </c>
       <c r="B97">
         <f>临时数据!$B$10</f>
         <v>3029010</v>
       </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" s="3" t="str">
         <f>(临时数据!$B$10)&amp;临时数据!A6</f>
-        <v>3029010F</v>
+        <v>302901006</v>
       </c>
       <c r="B98">
         <f>临时数据!$B$10</f>
         <v>3029010</v>
       </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" s="3" t="str">
         <f>(临时数据!$B$10)&amp;临时数据!A7</f>
-        <v>3029010G</v>
+        <v>302901007</v>
       </c>
       <c r="B99">
         <f>临时数据!$B$10</f>
         <v>3029010</v>
       </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" s="3" t="str">
         <f>(临时数据!$B$10)&amp;临时数据!A8</f>
-        <v>3029010H</v>
+        <v>302901008</v>
       </c>
       <c r="B100">
         <f>临时数据!$B$10</f>
         <v>3029010</v>
       </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" s="3" t="str">
         <f>(临时数据!$B$10)&amp;临时数据!A9</f>
-        <v>3029010I</v>
+        <v>302901009</v>
       </c>
       <c r="B101">
         <f>临时数据!$B$10</f>
         <v>3029010</v>
       </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" s="3" t="str">
         <f>(临时数据!$B$10)&amp;临时数据!A10</f>
-        <v>3029010J</v>
+        <v>302901010</v>
       </c>
       <c r="B102">
         <f>临时数据!$B$10</f>
         <v>3029010</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2014,89 +1896,89 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>7</v>
+      <c r="A1" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="B1">
         <v>3029001</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>8</v>
+      <c r="A2" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="B2">
         <v>3029002</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>9</v>
+      <c r="A3" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B3">
         <v>3029003</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>10</v>
+      <c r="A4" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B4">
         <v>3029004</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>11</v>
+      <c r="A5" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="B5">
         <v>3029005</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>12</v>
+      <c r="A6" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B6">
         <v>3029006</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>13</v>
+      <c r="A7" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="B7">
         <v>3029007</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>14</v>
+      <c r="A8" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B8">
         <v>3029008</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>15</v>
+      <c r="A9" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="B9">
         <v>3029009</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>16</v>
+      <c r="A10" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="B10">
         <v>3029010</v>
